--- a/medicine/Enfance/Max_Leiner/Max_Leiner.xlsx
+++ b/medicine/Enfance/Max_Leiner/Max_Leiner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Leiner (26 février 1936, Mannheim, République de Bade-16 avril 1944, Auschwitz) est un des 44 enfants d'Izieu arrêtés dans la Rafle du 6 avril 1944, déporté par le Convoi No. 71, en date du 13 avril 1944, du Camp de Drancy vers Auschwitz et assassiné à son arrivée à Auschwitz le 16 avril 1944. Il a 8 ans.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Leiner[1],[2],[3] est né le 26 février 1936, à Mannheim[4],[5], Bade-Wurtemberg, Allemagne[6]. Sa mère est Miche Leiner[7],[8].
-Max Leiner est un des 44 enfants d'Izieu arrêtés lors de la Rafle du 6 avril 1944, déporté par le Convoi No. 71, en date du 13 avril 1944, du Camp de Drancy vers Auschwitz, où il est assassiné à son arrivée le 16 avril 1944. il a 8 ans[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Leiner est né le 26 février 1936, à Mannheim Bade-Wurtemberg, Allemagne. Sa mère est Miche Leiner,.
+Max Leiner est un des 44 enfants d'Izieu arrêtés lors de la Rafle du 6 avril 1944, déporté par le Convoi No. 71, en date du 13 avril 1944, du Camp de Drancy vers Auschwitz, où il est assassiné à son arrivée le 16 avril 1944. il a 8 ans,.
 </t>
         </is>
       </c>
